--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H2">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N2">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O2">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P2">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q2">
-        <v>0.1433737754583333</v>
+        <v>1.240932286045667</v>
       </c>
       <c r="R2">
-        <v>1.290363979125</v>
+        <v>11.168390574411</v>
       </c>
       <c r="S2">
-        <v>0.003291668028301135</v>
+        <v>0.02516960064936141</v>
       </c>
       <c r="T2">
-        <v>0.003291668028301136</v>
+        <v>0.02516960064936141</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H3">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.653703</v>
       </c>
       <c r="O3">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P3">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q3">
-        <v>0.2616019179583333</v>
+        <v>1.047427248539222</v>
       </c>
       <c r="R3">
-        <v>2.354417261625</v>
+        <v>9.426845236853</v>
       </c>
       <c r="S3">
-        <v>0.006006026323384038</v>
+        <v>0.02124477366851382</v>
       </c>
       <c r="T3">
-        <v>0.006006026323384039</v>
+        <v>0.02124477366851382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H4">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I4">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J4">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N4">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O4">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P4">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q4">
-        <v>0.9509250075</v>
+        <v>4.100170543820444</v>
       </c>
       <c r="R4">
-        <v>8.5583250675</v>
+        <v>36.90153489438399</v>
       </c>
       <c r="S4">
-        <v>0.02183195242291315</v>
+        <v>0.08316300280258627</v>
       </c>
       <c r="T4">
-        <v>0.02183195242291316</v>
+        <v>0.08316300280258627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H5">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I5">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J5">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N5">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O5">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P5">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q5">
-        <v>0.2768907288333333</v>
+        <v>1.268150219435111</v>
       </c>
       <c r="R5">
-        <v>2.4920165595</v>
+        <v>11.413351974916</v>
       </c>
       <c r="S5">
-        <v>0.006357036749015227</v>
+        <v>0.025721656971545</v>
       </c>
       <c r="T5">
-        <v>0.006357036749015228</v>
+        <v>0.025721656971545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H6">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I6">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J6">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N6">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O6">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P6">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q6">
-        <v>1.071950081583334</v>
+        <v>5.014796378565999</v>
       </c>
       <c r="R6">
-        <v>9.647550734250002</v>
+        <v>45.13316740709399</v>
       </c>
       <c r="S6">
-        <v>0.02461052448540766</v>
+        <v>0.1017141898923283</v>
       </c>
       <c r="T6">
-        <v>0.02461052448540766</v>
+        <v>0.1017141898923283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H7">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I7">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J7">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N7">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O7">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P7">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q7">
-        <v>1.459663808958333</v>
+        <v>2.646935484187555</v>
       </c>
       <c r="R7">
-        <v>13.136974280625</v>
+        <v>23.822419357688</v>
       </c>
       <c r="S7">
-        <v>0.03351190743674551</v>
+        <v>0.05368730415897418</v>
       </c>
       <c r="T7">
-        <v>0.03351190743674551</v>
+        <v>0.05368730415897417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.155924</v>
       </c>
       <c r="I8">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J8">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N8">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O8">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P8">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q8">
-        <v>0.1581284708368889</v>
+        <v>0.3418263120626667</v>
       </c>
       <c r="R8">
-        <v>1.423156237532</v>
+        <v>3.076436808564</v>
       </c>
       <c r="S8">
-        <v>0.003630415884313537</v>
+        <v>0.006933200032596053</v>
       </c>
       <c r="T8">
-        <v>0.003630415884313537</v>
+        <v>0.006933200032596055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.155924</v>
       </c>
       <c r="I9">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J9">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>16.653703</v>
       </c>
       <c r="O9">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P9">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q9">
         <v>0.2885235540635556</v>
@@ -1013,10 +1013,10 @@
         <v>2.596711986572</v>
       </c>
       <c r="S9">
-        <v>0.00662411068751429</v>
+        <v>0.005852070024590275</v>
       </c>
       <c r="T9">
-        <v>0.006624110687514291</v>
+        <v>0.005852070024590275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.155924</v>
       </c>
       <c r="I10">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J10">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N10">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O10">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P10">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q10">
-        <v>1.04878536424</v>
+        <v>1.129430019335111</v>
       </c>
       <c r="R10">
-        <v>9.439068278160001</v>
+        <v>10.164870174016</v>
       </c>
       <c r="S10">
-        <v>0.02407869389630635</v>
+        <v>0.02290802074193043</v>
       </c>
       <c r="T10">
-        <v>0.02407869389630635</v>
+        <v>0.02290802074193043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.155924</v>
       </c>
       <c r="I11">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J11">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N11">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O11">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P11">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q11">
-        <v>0.3053857471448889</v>
+        <v>0.3493237443537778</v>
       </c>
       <c r="R11">
-        <v>2.748471724304</v>
+        <v>3.143913699184</v>
       </c>
       <c r="S11">
-        <v>0.007011243841226881</v>
+        <v>0.007085269068743245</v>
       </c>
       <c r="T11">
-        <v>0.007011243841226882</v>
+        <v>0.007085269068743245</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.155924</v>
       </c>
       <c r="I12">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J12">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N12">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O12">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P12">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q12">
-        <v>1.182265213232889</v>
+        <v>1.381372191784</v>
       </c>
       <c r="R12">
-        <v>10.640386919096</v>
+        <v>12.432349726056</v>
       </c>
       <c r="S12">
-        <v>0.02714321075057615</v>
+        <v>0.02801811735121288</v>
       </c>
       <c r="T12">
-        <v>0.02714321075057616</v>
+        <v>0.02801811735121288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.155924</v>
       </c>
       <c r="I13">
-        <v>0.1054483162989619</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J13">
-        <v>0.1054483162989618</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N13">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O13">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P13">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q13">
-        <v>1.609878831108889</v>
+        <v>0.7291229384568889</v>
       </c>
       <c r="R13">
-        <v>14.48890947998</v>
+        <v>6.562106446112</v>
       </c>
       <c r="S13">
-        <v>0.03696064123902463</v>
+        <v>0.01478866606310013</v>
       </c>
       <c r="T13">
-        <v>0.03696064123902463</v>
+        <v>0.01478866606310013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H14">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I14">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J14">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N14">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O14">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P14">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q14">
-        <v>0.3341159138104444</v>
+        <v>0.9462045379523335</v>
       </c>
       <c r="R14">
-        <v>3.007043224294</v>
+        <v>8.515840841571002</v>
       </c>
       <c r="S14">
-        <v>0.007670849621701398</v>
+        <v>0.01919169210172145</v>
       </c>
       <c r="T14">
-        <v>0.0076708496217014</v>
+        <v>0.01919169210172145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H15">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I15">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J15">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.653703</v>
       </c>
       <c r="O15">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P15">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q15">
-        <v>0.6096328536637777</v>
+        <v>0.7986579339481112</v>
       </c>
       <c r="R15">
-        <v>5.486695682973999</v>
+        <v>7.187921405533</v>
       </c>
       <c r="S15">
-        <v>0.01399634603324108</v>
+        <v>0.01619903154987964</v>
       </c>
       <c r="T15">
-        <v>0.01399634603324109</v>
+        <v>0.01619903154987964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H16">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I16">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J16">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N16">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O16">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P16">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q16">
-        <v>2.21602016708</v>
+        <v>3.126359124158222</v>
       </c>
       <c r="R16">
-        <v>19.94418150372</v>
+        <v>28.137232117424</v>
       </c>
       <c r="S16">
-        <v>0.0508768267469363</v>
+        <v>0.06341136541164501</v>
       </c>
       <c r="T16">
-        <v>0.05087682674693632</v>
+        <v>0.06341136541164502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H17">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I17">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J17">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N17">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O17">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P17">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q17">
-        <v>0.6452616497964444</v>
+        <v>0.9669580733195559</v>
       </c>
       <c r="R17">
-        <v>5.807354848167999</v>
+        <v>8.702622659876001</v>
       </c>
       <c r="S17">
-        <v>0.01481433501861757</v>
+        <v>0.01961263223127511</v>
       </c>
       <c r="T17">
-        <v>0.01481433501861757</v>
+        <v>0.01961263223127511</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H18">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I18">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J18">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N18">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O18">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P18">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q18">
-        <v>2.498055030792445</v>
+        <v>3.823756657526</v>
       </c>
       <c r="R18">
-        <v>22.482495277132</v>
+        <v>34.413809917734</v>
       </c>
       <c r="S18">
-        <v>0.05735196587737178</v>
+        <v>0.07755655093554771</v>
       </c>
       <c r="T18">
-        <v>0.05735196587737179</v>
+        <v>0.07755655093554772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1098193333333333</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H19">
-        <v>0.329458</v>
+        <v>0.431611</v>
       </c>
       <c r="I19">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J19">
-        <v>0.2228059271903194</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N19">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O19">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P19">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q19">
-        <v>3.401576793434444</v>
+        <v>2.018274804329778</v>
       </c>
       <c r="R19">
-        <v>30.61419114090999</v>
+        <v>18.164473238968</v>
       </c>
       <c r="S19">
-        <v>0.07809560389245128</v>
+        <v>0.04093629555527507</v>
       </c>
       <c r="T19">
-        <v>0.07809560389245129</v>
+        <v>0.04093629555527507</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H20">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I20">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J20">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N20">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O20">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P20">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q20">
-        <v>0.3272725098366667</v>
+        <v>0.2811401061513333</v>
       </c>
       <c r="R20">
-        <v>2.94545258853</v>
+        <v>2.530260955362</v>
       </c>
       <c r="S20">
-        <v>0.007513734319455768</v>
+        <v>0.005702312912573965</v>
       </c>
       <c r="T20">
-        <v>0.007513734319455769</v>
+        <v>0.005702312912573966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H21">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I21">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J21">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.653703</v>
       </c>
       <c r="O21">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P21">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q21">
-        <v>0.5971462772366667</v>
+        <v>0.2373004644584444</v>
       </c>
       <c r="R21">
-        <v>5.37431649513</v>
+        <v>2.135704180126</v>
       </c>
       <c r="S21">
-        <v>0.01370967112162166</v>
+        <v>0.004813121546994086</v>
       </c>
       <c r="T21">
-        <v>0.01370967112162167</v>
+        <v>0.004813121546994086</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H22">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I22">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J22">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N22">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O22">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P22">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q22">
-        <v>2.1706313646</v>
+        <v>0.9289164242808888</v>
       </c>
       <c r="R22">
-        <v>19.5356822814</v>
+        <v>8.360247818527998</v>
       </c>
       <c r="S22">
-        <v>0.04983476121236642</v>
+        <v>0.01884104048117443</v>
       </c>
       <c r="T22">
-        <v>0.04983476121236644</v>
+        <v>0.01884104048117443</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H23">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I23">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J23">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N23">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O23">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P23">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q23">
-        <v>0.6320453199066667</v>
+        <v>0.2873064802302223</v>
       </c>
       <c r="R23">
-        <v>5.68840787916</v>
+        <v>2.585758322072</v>
       </c>
       <c r="S23">
-        <v>0.01451090595419773</v>
+        <v>0.005827384340536229</v>
       </c>
       <c r="T23">
-        <v>0.01451090595419773</v>
+        <v>0.005827384340536229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H24">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I24">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J24">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N24">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O24">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P24">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q24">
-        <v>2.446889554926667</v>
+        <v>1.136129990372</v>
       </c>
       <c r="R24">
-        <v>22.02200599434</v>
+        <v>10.225169913348</v>
       </c>
       <c r="S24">
-        <v>0.0561772757325263</v>
+        <v>0.02304391501856188</v>
       </c>
       <c r="T24">
-        <v>0.05617727573252631</v>
+        <v>0.02304391501856187</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.10757</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H25">
-        <v>0.32271</v>
+        <v>0.128242</v>
       </c>
       <c r="I25">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J25">
-        <v>0.2182423882971061</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N25">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O25">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P25">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q25">
-        <v>3.331905271716667</v>
+        <v>0.5996779448551111</v>
       </c>
       <c r="R25">
-        <v>29.98714744545</v>
+        <v>5.397101503696</v>
       </c>
       <c r="S25">
-        <v>0.07649603995693822</v>
+        <v>0.01216315713593858</v>
       </c>
       <c r="T25">
-        <v>0.07649603995693824</v>
+        <v>0.01216315713593857</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2037,10 +2037,10 @@
         <v>0.449153</v>
       </c>
       <c r="I26">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J26">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N26">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O26">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P26">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q26">
-        <v>0.4555031750198889</v>
+        <v>0.9846612038036667</v>
       </c>
       <c r="R26">
-        <v>4.099528575179</v>
+        <v>8.861950834233001</v>
       </c>
       <c r="S26">
-        <v>0.01045773701089683</v>
+        <v>0.01997170156127738</v>
       </c>
       <c r="T26">
-        <v>0.01045773701089683</v>
+        <v>0.01997170156127739</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2099,10 +2099,10 @@
         <v>0.449153</v>
       </c>
       <c r="I27">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J27">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.653703</v>
       </c>
       <c r="O27">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P27">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q27">
         <v>0.8311178515065556</v>
       </c>
       <c r="R27">
-        <v>7.480060663559</v>
+        <v>7.480060663559001</v>
       </c>
       <c r="S27">
-        <v>0.01908134211301086</v>
+        <v>0.01685741007000074</v>
       </c>
       <c r="T27">
-        <v>0.01908134211301087</v>
+        <v>0.01685741007000074</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2161,10 +2161,10 @@
         <v>0.449153</v>
       </c>
       <c r="I28">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J28">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N28">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O28">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P28">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q28">
-        <v>3.02111985778</v>
+        <v>3.253423985239111</v>
       </c>
       <c r="R28">
-        <v>27.19007872002</v>
+        <v>29.280815867152</v>
       </c>
       <c r="S28">
-        <v>0.06936082706708195</v>
+        <v>0.06598859854993637</v>
       </c>
       <c r="T28">
-        <v>0.06936082706708196</v>
+        <v>0.06598859854993638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2223,10 +2223,10 @@
         <v>0.449153</v>
       </c>
       <c r="I29">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J29">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N29">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O29">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P29">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q29">
-        <v>0.8796909038208889</v>
+        <v>1.006258226749778</v>
       </c>
       <c r="R29">
-        <v>7.917218134387999</v>
+        <v>9.056324040748002</v>
       </c>
       <c r="S29">
-        <v>0.02019651371834084</v>
+        <v>0.02040974999379976</v>
       </c>
       <c r="T29">
-        <v>0.02019651371834084</v>
+        <v>0.02040974999379977</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2285,10 +2285,10 @@
         <v>0.449153</v>
       </c>
       <c r="I30">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J30">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N30">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O30">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P30">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q30">
-        <v>3.40562047740689</v>
+        <v>3.979165901697999</v>
       </c>
       <c r="R30">
-        <v>30.650584296662</v>
+        <v>35.812493115282</v>
       </c>
       <c r="S30">
-        <v>0.07818844140897828</v>
+        <v>0.08070868796753108</v>
       </c>
       <c r="T30">
-        <v>0.07818844140897831</v>
+        <v>0.0807086879675311</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2347,10 +2347,10 @@
         <v>0.449153</v>
       </c>
       <c r="I31">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J31">
-        <v>0.3037532875671969</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N31">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O31">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P31">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q31">
-        <v>4.637399673103888</v>
+        <v>2.100303706784889</v>
       </c>
       <c r="R31">
-        <v>41.73659705793499</v>
+        <v>18.902733361064</v>
       </c>
       <c r="S31">
-        <v>0.1064684262488881</v>
+        <v>0.0426000726523153</v>
       </c>
       <c r="T31">
-        <v>0.1064684262488881</v>
+        <v>0.04260007265231531</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H32">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I32">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J32">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.042414333333333</v>
+        <v>6.576787</v>
       </c>
       <c r="N32">
-        <v>9.127243</v>
+        <v>19.730361</v>
       </c>
       <c r="O32">
-        <v>0.03442839119422979</v>
+        <v>0.08100919814900366</v>
       </c>
       <c r="P32">
-        <v>0.0344283911942298</v>
+        <v>0.08100919814900369</v>
       </c>
       <c r="Q32">
-        <v>0.08118885476122222</v>
+        <v>0.199217455017</v>
       </c>
       <c r="R32">
-        <v>0.730699692851</v>
+        <v>1.792957095153</v>
       </c>
       <c r="S32">
-        <v>0.001863986329561124</v>
+        <v>0.004040690891473416</v>
       </c>
       <c r="T32">
-        <v>0.001863986329561125</v>
+        <v>0.004040690891473418</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H33">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I33">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J33">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.653703</v>
       </c>
       <c r="O33">
-        <v>0.06281855339191893</v>
+        <v>0.06837701176585957</v>
       </c>
       <c r="P33">
-        <v>0.06281855339191894</v>
+        <v>0.06837701176585959</v>
       </c>
       <c r="Q33">
-        <v>0.1481383890078889</v>
+        <v>0.168152439191</v>
       </c>
       <c r="R33">
-        <v>1.333245501071</v>
+        <v>1.513371952719</v>
       </c>
       <c r="S33">
-        <v>0.003401057113146992</v>
+        <v>0.003410604905881018</v>
       </c>
       <c r="T33">
-        <v>0.003401057113146992</v>
+        <v>0.003410604905881019</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H34">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I34">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J34">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.17878</v>
+        <v>21.73039466666667</v>
       </c>
       <c r="N34">
-        <v>60.53634</v>
+        <v>65.19118399999999</v>
       </c>
       <c r="O34">
-        <v>0.2283459304180792</v>
+        <v>0.267662894876792</v>
       </c>
       <c r="P34">
-        <v>0.2283459304180793</v>
+        <v>0.2676628948767921</v>
       </c>
       <c r="Q34">
-        <v>0.53848419682</v>
+        <v>0.6582353848479999</v>
       </c>
       <c r="R34">
-        <v>4.84635777138</v>
+        <v>5.924118463631999</v>
       </c>
       <c r="S34">
-        <v>0.01236286907247504</v>
+        <v>0.01335086688951953</v>
       </c>
       <c r="T34">
-        <v>0.01236286907247504</v>
+        <v>0.01335086688951954</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H35">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I35">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J35">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.875665333333333</v>
+        <v>6.721038666666668</v>
       </c>
       <c r="N35">
-        <v>17.626996</v>
+        <v>20.163116</v>
       </c>
       <c r="O35">
-        <v>0.06648986050520664</v>
+        <v>0.08278600981225566</v>
       </c>
       <c r="P35">
-        <v>0.06648986050520665</v>
+        <v>0.08278600981225567</v>
       </c>
       <c r="Q35">
-        <v>0.1567960465302222</v>
+        <v>0.203586982252</v>
       </c>
       <c r="R35">
-        <v>1.411164418772</v>
+        <v>1.832282840268</v>
       </c>
       <c r="S35">
-        <v>0.003599825223808396</v>
+        <v>0.004129317206356332</v>
       </c>
       <c r="T35">
-        <v>0.003599825223808397</v>
+        <v>0.004129317206356333</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H36">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I36">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J36">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>22.74695133333334</v>
+        <v>26.577798</v>
       </c>
       <c r="N36">
-        <v>68.24085400000001</v>
+        <v>79.73339399999999</v>
       </c>
       <c r="O36">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091235</v>
       </c>
       <c r="P36">
-        <v>0.2574077207038666</v>
+        <v>0.3273705085091236</v>
       </c>
       <c r="Q36">
-        <v>0.6070175609642223</v>
+        <v>0.8050680792179999</v>
       </c>
       <c r="R36">
-        <v>5.463158048678001</v>
+        <v>7.245612712961999</v>
       </c>
       <c r="S36">
-        <v>0.01393630244900641</v>
+        <v>0.01632904734394171</v>
       </c>
       <c r="T36">
-        <v>0.01393630244900641</v>
+        <v>0.01632904734394171</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.02668566666666667</v>
+        <v>0.030291</v>
       </c>
       <c r="H37">
-        <v>0.080057</v>
+        <v>0.090873</v>
       </c>
       <c r="I37">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J37">
-        <v>0.05414096520064896</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>30.97429833333333</v>
+        <v>14.02842933333333</v>
       </c>
       <c r="N37">
-        <v>92.922895</v>
+        <v>42.085288</v>
       </c>
       <c r="O37">
-        <v>0.3505095437866987</v>
+        <v>0.1727943768869655</v>
       </c>
       <c r="P37">
-        <v>0.3505095437866988</v>
+        <v>0.1727943768869656</v>
       </c>
       <c r="Q37">
-        <v>0.8265698005572222</v>
+        <v>0.424935152936</v>
       </c>
       <c r="R37">
-        <v>7.439128205015</v>
+        <v>3.824416376424</v>
       </c>
       <c r="S37">
-        <v>0.018976925012651</v>
+        <v>0.008618881321362315</v>
       </c>
       <c r="T37">
-        <v>0.018976925012651</v>
+        <v>0.008618881321362317</v>
       </c>
     </row>
   </sheetData>
